--- a/hw2/experiment.xlsx
+++ b/hw2/experiment.xlsx
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48:H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -529,12 +529,12 @@
         <v>0.25</v>
       </c>
       <c r="G3">
-        <f>2*ATAN(4672*F3/2/B3)*PI()/180</f>
-        <v>2.6943885882829317E-2</v>
+        <f>2*ATAN(4672*F3/2/B3)*180/PI()</f>
+        <v>88.45155967014388</v>
       </c>
       <c r="H3">
-        <f>2*ATAN(23.4/2/18)*PI()/180</f>
-        <v>2.0119290652449544E-2</v>
+        <f>2*ATAN(23.4/2/18)*180/PI()</f>
+        <v>66.047735111593283</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -559,12 +559,12 @@
         <v>0.2</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G52" si="2">2*ATAN(4672*F4/2/B4)*PI()/180</f>
-        <v>2.3094084139993625E-2</v>
+        <f t="shared" ref="G4:G52" si="2">2*ATAN(4672*F4/2/B4)*180/PI()</f>
+        <v>75.813406062476588</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H16" si="3">2*ATAN(23.4/2/18)*PI()/180</f>
-        <v>2.0119290652449544E-2</v>
+        <f t="shared" ref="H4:H16" si="3">2*ATAN(23.4/2/18)*180/PI()</f>
+        <v>66.047735111593283</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -590,11 +590,11 @@
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>2.2433767246979118E-2</v>
+        <v>73.645713573068534</v>
       </c>
       <c r="H5">
         <f t="shared" si="3"/>
-        <v>2.0119290652449544E-2</v>
+        <v>66.047735111593283</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -620,11 +620,11 @@
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>2.3094084139993625E-2</v>
+        <v>75.813406062476588</v>
       </c>
       <c r="H6">
         <f t="shared" si="3"/>
-        <v>2.0119290652449544E-2</v>
+        <v>66.047735111593283</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -664,11 +664,11 @@
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>2.0092011363661108E-2</v>
+        <v>65.958182489134799</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
-        <v>2.0119290652449544E-2</v>
+        <v>66.047735111593283</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -694,11 +694,11 @@
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>1.8151087446235288E-2</v>
+        <v>59.586505128119654</v>
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
-        <v>2.0119290652449544E-2</v>
+        <v>66.047735111593283</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -724,11 +724,11 @@
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>2.0092011363661108E-2</v>
+        <v>65.958182489134799</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>2.0119290652449544E-2</v>
+        <v>66.047735111593283</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -754,11 +754,11 @@
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>2.1206549786189969E-2</v>
+        <v>69.616996299944617</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>2.0119290652449544E-2</v>
+        <v>66.047735111593283</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -798,11 +798,11 @@
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>1.4251801027112935E-2</v>
+        <v>46.785902910910238</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>2.0119290652449544E-2</v>
+        <v>66.047735111593283</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -828,11 +828,11 @@
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>2.0092011363661108E-2</v>
+        <v>65.958182489134799</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>2.0119290652449544E-2</v>
+        <v>66.047735111593283</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -858,11 +858,11 @@
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>2.0917880461483084E-2</v>
+        <v>68.669350807743257</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>2.0119290652449544E-2</v>
+        <v>66.047735111593283</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -888,11 +888,11 @@
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>1.8262377049312162E-2</v>
+        <v>59.951847343790696</v>
       </c>
       <c r="H16">
-        <f>2*ATAN(23.4/2/18)*PI()/180</f>
-        <v>2.0119290652449544E-2</v>
+        <f t="shared" si="3"/>
+        <v>66.047735111593283</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
@@ -937,11 +937,11 @@
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>6.1141045325823797E-3</v>
+        <v>20.071421184197021</v>
       </c>
       <c r="H21">
-        <f>2*ATAN(23.4/2/53)*PI()/180</f>
-        <v>7.5841560316505649E-3</v>
+        <f>2*ATAN(23.4/2/53)*180/PI()</f>
+        <v>24.89731558018234</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
@@ -967,11 +967,11 @@
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>1.0461093622364389E-2</v>
+        <v>34.341744571565172</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22:H34" si="7">2*ATAN(23.4/2/53)*PI()/180</f>
-        <v>7.5841560316505649E-3</v>
+        <f t="shared" ref="H22:H34" si="7">2*ATAN(23.4/2/53)*180/PI()</f>
+        <v>24.89731558018234</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
@@ -997,11 +997,11 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>1.0157336300742691E-2</v>
+        <v>33.344568107282903</v>
       </c>
       <c r="H23">
         <f t="shared" si="7"/>
-        <v>7.5841560316505649E-3</v>
+        <v>24.89731558018234</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
@@ -1027,11 +1027,11 @@
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>1.0011798062753435E-2</v>
+        <v>32.866794255442251</v>
       </c>
       <c r="H24">
         <f t="shared" si="7"/>
-        <v>7.5841560316505649E-3</v>
+        <v>24.89731558018234</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
@@ -1071,11 +1071,11 @@
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>6.7112145554344832E-3</v>
+        <v>22.031617758871565</v>
       </c>
       <c r="H26">
         <f t="shared" si="7"/>
-        <v>7.5841560316505649E-3</v>
+        <v>24.89731558018234</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
@@ -1101,11 +1101,11 @@
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
-        <v>7.4356210423773125E-3</v>
+        <v>24.409703974197182</v>
       </c>
       <c r="H27">
         <f t="shared" si="7"/>
-        <v>7.5841560316505649E-3</v>
+        <v>24.89731558018234</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
@@ -1131,11 +1131,11 @@
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
-        <v>8.3320056118613723E-3</v>
+        <v>27.352360930952003</v>
       </c>
       <c r="H28">
         <f t="shared" si="7"/>
-        <v>7.5841560316505649E-3</v>
+        <v>24.89731558018234</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
@@ -1161,11 +1161,11 @@
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
-        <v>8.1361524594238521E-3</v>
+        <v>26.709412958460291</v>
       </c>
       <c r="H29">
         <f t="shared" si="7"/>
-        <v>7.5841560316505649E-3</v>
+        <v>24.89731558018234</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
@@ -1205,11 +1205,11 @@
       </c>
       <c r="G31">
         <f t="shared" si="2"/>
-        <v>3.4731843350357988E-3</v>
+        <v>11.401791589816838</v>
       </c>
       <c r="H31">
         <f t="shared" si="7"/>
-        <v>7.5841560316505649E-3</v>
+        <v>24.89731558018234</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
@@ -1235,11 +1235,11 @@
       </c>
       <c r="G32">
         <f t="shared" si="2"/>
-        <v>5.9037138836293569E-3</v>
+        <v>19.380749425830949</v>
       </c>
       <c r="H32">
         <f t="shared" si="7"/>
-        <v>7.5841560316505649E-3</v>
+        <v>24.89731558018234</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
@@ -1265,11 +1265,11 @@
       </c>
       <c r="G33">
         <f t="shared" si="2"/>
-        <v>7.5577775733402935E-3</v>
+        <v>24.810720209737866</v>
       </c>
       <c r="H33">
         <f t="shared" si="7"/>
-        <v>7.5841560316505649E-3</v>
+        <v>24.89731558018234</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
@@ -1295,11 +1295,11 @@
       </c>
       <c r="G34">
         <f t="shared" si="2"/>
-        <v>8.6979438728171689E-3</v>
+        <v>28.553665377729946</v>
       </c>
       <c r="H34">
         <f t="shared" si="7"/>
-        <v>7.5841560316505649E-3</v>
+        <v>24.89731558018234</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
@@ -1344,11 +1344,11 @@
       </c>
       <c r="G39">
         <f t="shared" si="2"/>
-        <v>2.3396447724303984E-3</v>
+        <v>7.6806007157062925</v>
       </c>
       <c r="H39">
-        <f>2*ATAN(23.4/2/135)*PI()/180</f>
-        <v>3.0176970248789372E-3</v>
+        <f>2*ATAN(23.4/2/135)*180/PI()</f>
+        <v>9.9065149556841234</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
@@ -1374,11 +1374,11 @@
       </c>
       <c r="G40">
         <f t="shared" si="2"/>
-        <v>4.2791614720711323E-3</v>
+        <v>14.047658453240716</v>
       </c>
       <c r="H40">
-        <f t="shared" ref="H40:H52" si="11">2*ATAN(23.4/2/135)*PI()/180</f>
-        <v>3.0176970248789372E-3</v>
+        <f>2*ATAN(23.4/2/135)*180/PI()</f>
+        <v>9.9065149556841234</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
@@ -1404,11 +1404,11 @@
       </c>
       <c r="G41">
         <f t="shared" si="2"/>
-        <v>5.1301549327482073E-3</v>
+        <v>16.841305189769891</v>
       </c>
       <c r="H41">
-        <f t="shared" si="11"/>
-        <v>3.0176970248789372E-3</v>
+        <f t="shared" ref="H41:H52" si="11">2*ATAN(23.4/2/135)*180/PI()</f>
+        <v>9.9065149556841234</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
@@ -1434,11 +1434,11 @@
       </c>
       <c r="G42">
         <f t="shared" si="2"/>
-        <v>5.3611413831139206E-3</v>
+        <v>17.599588975797122</v>
       </c>
       <c r="H42">
         <f t="shared" si="11"/>
-        <v>3.0176970248789372E-3</v>
+        <v>9.9065149556841234</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
@@ -1478,11 +1478,11 @@
       </c>
       <c r="G44">
         <f t="shared" si="2"/>
-        <v>1.7866351823106951E-3</v>
+        <v>5.8651773216439409</v>
       </c>
       <c r="H44">
-        <f>2*ATAN(23.4/2/135)*PI()/180</f>
-        <v>3.0176970248789372E-3</v>
+        <f t="shared" si="11"/>
+        <v>9.9065149556841234</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
@@ -1508,11 +1508,11 @@
       </c>
       <c r="G45">
         <f t="shared" si="2"/>
-        <v>5.3506702011439601E-3</v>
+        <v>17.565214113134008</v>
       </c>
       <c r="H45">
         <f t="shared" si="11"/>
-        <v>3.0176970248789372E-3</v>
+        <v>9.9065149556841234</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
@@ -1538,11 +1538,11 @@
       </c>
       <c r="G46">
         <f t="shared" si="2"/>
-        <v>4.722821232004704E-3</v>
+        <v>15.504107530395331</v>
       </c>
       <c r="H46">
         <f t="shared" si="11"/>
-        <v>3.0176970248789372E-3</v>
+        <v>9.9065149556841234</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
@@ -1568,11 +1568,11 @@
       </c>
       <c r="G47">
         <f t="shared" si="2"/>
-        <v>4.3197602854382379E-3</v>
+        <v>14.180936495565192</v>
       </c>
       <c r="H47">
         <f t="shared" si="11"/>
-        <v>3.0176970248789372E-3</v>
+        <v>9.9065149556841234</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
@@ -1612,11 +1612,11 @@
       </c>
       <c r="G49">
         <f t="shared" si="2"/>
-        <v>1.0951219748510441E-2</v>
+        <v>35.950733730784094</v>
       </c>
       <c r="H49">
         <f t="shared" si="11"/>
-        <v>3.0176970248789372E-3</v>
+        <v>9.9065149556841234</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
@@ -1642,11 +1642,11 @@
       </c>
       <c r="G50">
         <f t="shared" si="2"/>
-        <v>6.5827496858136157E-3</v>
+        <v>21.609892469126752</v>
       </c>
       <c r="H50">
         <f t="shared" si="11"/>
-        <v>3.0176970248789372E-3</v>
+        <v>9.9065149556841234</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
@@ -1672,11 +1672,11 @@
       </c>
       <c r="G51">
         <f t="shared" si="2"/>
-        <v>5.1688964467643721E-3</v>
+        <v>16.968486077991223</v>
       </c>
       <c r="H51">
         <f t="shared" si="11"/>
-        <v>3.0176970248789372E-3</v>
+        <v>9.9065149556841234</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
@@ -1702,11 +1702,11 @@
       </c>
       <c r="G52">
         <f t="shared" si="2"/>
-        <v>4.2926097806677268E-3</v>
+        <v>14.091806646098537</v>
       </c>
       <c r="H52">
         <f t="shared" si="11"/>
-        <v>3.0176970248789372E-3</v>
+        <v>9.9065149556841234</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">

--- a/hw2/experiment.xlsx
+++ b/hw2/experiment.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsunh\Documents\GitHub\Advanced-Computer-Vision\hw2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thtang\Documents\GitHub\Advanced-Computer-Vision\hw2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2633" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2640" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
   <si>
     <t>600mm_0mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -460,17 +460,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48:H48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.46484375" customWidth="1"/>
-    <col min="5" max="5" width="10.9296875" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -493,7 +493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -507,7 +507,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -537,7 +537,7 @@
         <v>66.047735111593283</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -567,7 +567,7 @@
         <v>66.047735111593283</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -597,7 +597,7 @@
         <v>66.047735111593283</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -627,7 +627,7 @@
         <v>66.047735111593283</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -641,7 +641,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -671,7 +671,7 @@
         <v>66.047735111593283</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -701,7 +701,7 @@
         <v>66.047735111593283</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -731,7 +731,7 @@
         <v>66.047735111593283</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -761,7 +761,7 @@
         <v>66.047735111593283</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -775,7 +775,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -805,7 +805,7 @@
         <v>66.047735111593283</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -835,7 +835,7 @@
         <v>66.047735111593283</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -865,7 +865,7 @@
         <v>66.047735111593283</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -895,12 +895,30 @@
         <v>66.047735111593283</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -914,7 +932,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -944,7 +962,7 @@
         <v>24.89731558018234</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -974,7 +992,7 @@
         <v>24.89731558018234</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1004,7 +1022,7 @@
         <v>24.89731558018234</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1034,7 +1052,7 @@
         <v>24.89731558018234</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1048,7 +1066,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1078,7 +1096,7 @@
         <v>24.89731558018234</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1108,7 +1126,7 @@
         <v>24.89731558018234</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1138,7 +1156,7 @@
         <v>24.89731558018234</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -1168,7 +1186,7 @@
         <v>24.89731558018234</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1182,7 +1200,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1212,7 +1230,7 @@
         <v>24.89731558018234</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1242,7 +1260,7 @@
         <v>24.89731558018234</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -1272,7 +1290,7 @@
         <v>24.89731558018234</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1302,12 +1320,30 @@
         <v>24.89731558018234</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1321,7 +1357,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -1351,7 +1387,7 @@
         <v>9.9065149556841234</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1381,7 +1417,7 @@
         <v>9.9065149556841234</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1411,7 +1447,7 @@
         <v>9.9065149556841234</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1441,7 +1477,7 @@
         <v>9.9065149556841234</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1455,7 +1491,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1485,7 +1521,7 @@
         <v>9.9065149556841234</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -1515,7 +1551,7 @@
         <v>9.9065149556841234</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -1545,7 +1581,7 @@
         <v>9.9065149556841234</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -1575,7 +1611,7 @@
         <v>9.9065149556841234</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -1589,7 +1625,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -1619,7 +1655,7 @@
         <v>9.9065149556841234</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -1649,7 +1685,7 @@
         <v>9.9065149556841234</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -1679,7 +1715,7 @@
         <v>9.9065149556841234</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -1709,7 +1745,7 @@
         <v>9.9065149556841234</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H55" s="1"/>
     </row>
   </sheetData>
